--- a/outputs-GTDB-r202/o__Saccharofermentanales.xlsx
+++ b/outputs-GTDB-r202/o__Saccharofermentanales.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>f__DTU023</t>
+          <t>f__DTU023(reject)</t>
         </is>
       </c>
     </row>
